--- a/biology/Zoologie/Institut_Max-Planck_de_physiologie_comportementale/Institut_Max-Planck_de_physiologie_comportementale.xlsx
+++ b/biology/Zoologie/Institut_Max-Planck_de_physiologie_comportementale/Institut_Max-Planck_de_physiologie_comportementale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien Institut Max-Planck de physiologie comportementale, situé à Seewiesen, en Bavière (Allemagne), était l'un des 80 instituts de la Société Max-Planck.
 </t>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idée de créer un institut de recherche allemand pour la recherche en éthologie émergea pour la première fois avec la rencontre de Konrad Lorenz et Erich von Holst lors d'une conférence à Berlin, en février 1936.
 Dans les années 1950, à l'époque de sa création, si la physiologie était classée parmi les «sciences dures», il n'en allait pas de même de la recherche sur le comportement animal, essentiellement descriptive et comparative, qui était perçue davantage comme un passe-temps d'amateurs.
 L'emplacement pour la construction des bâtiments fut choisie au départ en fonction du milieu naturel pour l'étude, à proximité, d'espèces de poissons et d'oies dans leur milieu.
-L'établissement fut fondé en 1954 par Erich von Holst, et Konrad Lorenz. En 1958, le prersonnel emménagea dans de nouveaux bâtiments de la même localité. Après y avoir travaillé  de 1951 à 1965, Irenäus Eibl-Eibesfeldt en devint le directeur en 1975. En 1987, l'institut devint indépendant. En 1997, la Société Max-Planck fut contrainte de réduire son budget et de supprimer quatre de ses instituts. On mit fin incidemment aux activités de recherche sur la  physiologie comportementale de l'établissement[1]. L'Institut a ainsi été officiellement fermé le 30 novembre 1999. Cependant, ses activités n'ont pas cessé complètement pour autant se recentrant sur le domaine de l'ornithologie. l'Institut Max-Planck d'ornithologie succédant ainsi à l'Institut Max-Planck de physiologie comportementale.
+L'établissement fut fondé en 1954 par Erich von Holst, et Konrad Lorenz. En 1958, le prersonnel emménagea dans de nouveaux bâtiments de la même localité. Après y avoir travaillé  de 1951 à 1965, Irenäus Eibl-Eibesfeldt en devint le directeur en 1975. En 1987, l'institut devint indépendant. En 1997, la Société Max-Planck fut contrainte de réduire son budget et de supprimer quatre de ses instituts. On mit fin incidemment aux activités de recherche sur la  physiologie comportementale de l'établissement. L'Institut a ainsi été officiellement fermé le 30 novembre 1999. Cependant, ses activités n'ont pas cessé complètement pour autant se recentrant sur le domaine de l'ornithologie. l'Institut Max-Planck d'ornithologie succédant ainsi à l'Institut Max-Planck de physiologie comportementale.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Collaborateurs et sujets de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les recherches qui furent menées à cet institut portèrent sur un éventail de sujets dont voici des exemples:
 Jürgen Aschoff: Rythmes biologiques chez les animaux et les humains, en particulier les rythmes circadiens et cycle annuel des oiseaux migrateurs; gestion de l'énergie et thermorégulation.
